--- a/public/documents/PRJ_Req_Stratego.xlsx
+++ b/public/documents/PRJ_Req_Stratego.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniskim/Desktop/React_Projects/PRJ_StrateGoWeb/client/public/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniskim/Desktop/React_Projects/PRJ_StrategoWeb_Deploy/stratego-client/public/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4F1D23-22C9-2644-A149-9B5EBA7C9377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B451B1AC-E365-9843-91FD-5DF612E5F623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4340" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{4ED293AD-2BA3-48D1-AA68-C968A496D915}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4ED293AD-2BA3-48D1-AA68-C968A496D915}"/>
   </bookViews>
   <sheets>
     <sheet name="Anforderungen" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -48,53 +48,6 @@
   </si>
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Der </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spieler 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> darf die Farbe seiner Spielfiguren zwischen Blau und Rot auswählen;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Spieler 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> bekommt die übrige Farbe </t>
-    </r>
   </si>
   <si>
     <t>Wird die Fahne des Gegenspielers von der eigegen Spielfigur aufgedeckt/erobert, so ist das Spiel gewonnen</t>
@@ -340,84 +293,9 @@
     <t>Anforderungsliste - Onlinespiel "Stratego-Web"</t>
   </si>
   <si>
-    <t>Zum Starten des Spiels muss der Gegner angemeldet sein:
-a) Das Spiel darf nur dann starten, wenn der Gegner nach Eingabe des korrekten Namens gefunden wurde
-b) Bei falscher Eingabe des Gegnernamens soll der User über ein Pop-Up informiert werden, dass der Gegner nicht gefunden wurde</t>
-  </si>
-  <si>
     <t>TO-DO</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Pro Runde hat der Spieler jeweils 1 Spielzug:
-a) Die (bewegbare) Spielfigur darf pro Spielzug </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>je nach aktueller Position</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> um 1 Spielfeld nach vorne, hinten, rechts oder links bewegt werden (diagonale Bewegungen sind nicht erlaubt)
-b) Die Spielfiguren dürfen nur innerhalb der </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bespielbaren Flächen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> des Spielfelds bewegt werden
-c) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zeitbegrenzung pro Spielzug</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> muss vor Beginn des Spiels einstellbar sein
-d) Wird das eingestellte Zeitlimit überschritten, so ist der Spielzug unabhängig von der Aktion vorbei und der Spieler hat das Spiel verloren</t>
-    </r>
-  </si>
-  <si>
     <t>Test Ergebnis</t>
   </si>
   <si>
@@ -428,9 +306,6 @@
   </si>
   <si>
     <t>Req_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Spielfigur mit der größeren Nummer (Wertigkeit) gewinnt im direkten Duell gegen eine niederwertigere Spielfigur  </t>
   </si>
   <si>
     <t xml:space="preserve">Die besiegte gegnerische Spielfigur wird ausgegraut und in 'Defeated Figures' beim Sieger abgelegt   </t>
@@ -801,6 +676,54 @@
 •  Der Button 'Join Game' ist nicht klickbar, so lange keine Eingaben für den gegnerischen Namen gesetzt wurden.
 •  Der Button 'Cancel' ist sichtbar und klickbar.
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pro Runde hat der Spieler jeweils 1 Spielzug:
+a) Die (bewegbare) Spielfigur darf pro Spielzug </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>je nach aktueller Position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> um 1 Spielfeld nach vorne, hinten, rechts oder links bewegt werden (diagonale Bewegungen sind nicht erlaubt)
+b) Die Spielfiguren dürfen nur innerhalb der </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bespielbaren Flächen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> des Spielfelds bewegt werden
+c) Wird das eingestellte Zeitlimit überschritten, so ist der Spielzug unabhängig von der Aktion vorbei und der Spieler hat das Spiel verloren</t>
     </r>
   </si>
 </sst>
@@ -929,28 +852,28 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC9661-0BDE-457E-82E2-5DCDED98A43C}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="127" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="127" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1331,22 +1254,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13"/>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
@@ -1354,406 +1277,354 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="295" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="311" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="173" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="127" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="185" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="D3:E3" xr:uid="{E3BC9661-0BDE-457E-82E2-5DCDED98A43C}"/>
-  <mergeCells count="39">
+  <mergeCells count="35">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -1761,28 +1632,14 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D23">
+  <conditionalFormatting sqref="D4:D19">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",D4)))</formula>
     </cfRule>
@@ -1790,7 +1647,7 @@
       <formula>NOT(ISERROR(SEARCH("FAILED",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:E23">
+  <conditionalFormatting sqref="D4:E19">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="DONE">
       <formula>NOT(ISERROR(SEARCH("DONE",D4)))</formula>
     </cfRule>
@@ -1802,10 +1659,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E4:E20" xr:uid="{6981F621-D2D4-BF46-80B5-B03BF380613D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E4:E16" xr:uid="{6981F621-D2D4-BF46-80B5-B03BF380613D}">
       <formula1>"TO-DO,IN PROGRESS,DONE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4:D23" xr:uid="{1FA8664D-75D7-3449-85EA-1DF902ED9542}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4:D19" xr:uid="{1FA8664D-75D7-3449-85EA-1DF902ED9542}">
       <formula1>"FAILED,PASSED"</formula1>
     </dataValidation>
   </dataValidations>
